--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Alk.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H2">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.00866271985</v>
+        <v>0.004662273721111112</v>
       </c>
       <c r="R2">
-        <v>0.07796447865</v>
+        <v>0.04196046349</v>
       </c>
       <c r="S2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="T2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>131.577157</v>
       </c>
       <c r="I3">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J3">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>14.90637611653</v>
       </c>
       <c r="S3">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="T3">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H4">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I4">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J4">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2471554276933334</v>
+        <v>0.1613632331383334</v>
       </c>
       <c r="R4">
-        <v>1.48293256616</v>
+        <v>0.96817939883</v>
       </c>
       <c r="S4">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="T4">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
     </row>
   </sheetData>
